--- a/Assignment/TestCaseData/TestData.xlsx
+++ b/Assignment/TestCaseData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itron-my.sharepoint.com/personal/fparveen_itron_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fparveen\source\repos\test\SwagLabsAssignment\Assignment\TestCaseData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{F8434780-6323-4402-9DD9-38CC9D206CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA223E99-28A2-4627-BC56-F9CD141A8504}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD07996-A6D3-46A7-8316-F80FDAB456D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E40EE189-8E83-4C25-8BE9-6AD7C465FB63}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>UserName</t>
   </si>
@@ -45,15 +45,6 @@
   </si>
   <si>
     <t>standard_user</t>
-  </si>
-  <si>
-    <t>locked_out_user</t>
-  </si>
-  <si>
-    <t>problem_user</t>
-  </si>
-  <si>
-    <t>performance_glitch_user</t>
   </si>
   <si>
     <t>secret_sauce</t>
@@ -109,10 +100,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{930B6FDF-50F9-404C-B7A0-F90A94A277B3}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,22 +424,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
